--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Comp-3000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E70061-A998-42FE-A84C-A5F15984C6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A44AD4-B7DC-43A6-805E-0F77146B31D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{702F8439-AB33-498D-B447-5E3709E800CF}"/>
+    <workbookView xWindow="2775" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{702F8439-AB33-498D-B447-5E3709E800CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$10:$C$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$10:$D$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$10:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Comp 3000 Final Project</t>
   </si>
@@ -48,6 +53,36 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Gather Feedback</t>
+  </si>
+  <si>
+    <t>Improve Designs</t>
+  </si>
+  <si>
+    <t>Create User Interface</t>
+  </si>
+  <si>
+    <t>Develop Functions</t>
+  </si>
+  <si>
+    <t>Develop Backend</t>
+  </si>
+  <si>
+    <t>Integrate Backend and Frontend</t>
+  </si>
+  <si>
+    <t>Design Plans</t>
+  </si>
+  <si>
+    <t>Poster Design</t>
+  </si>
+  <si>
+    <t>Poster and Description Creation</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
 </sst>
 </file>
@@ -83,8 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,6 +137,704 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{33538126-D9C4-453F-AD2B-964D1311F532}" formatIdx="0">
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="waterfall" hidden="1" uniqueId="{D20E1357-BAAB-43C2-AECA-FFA51DC6ED18}" formatIdx="1">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:majorGridlines>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57BEF44-F744-0D42-670E-D953F386C3B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7677150" y="1181100"/>
+              <a:ext cx="5962650" cy="3933825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,20 +1154,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76629A3-5147-4CC6-A7FB-B2B3D444AAED}">
-  <dimension ref="C4:E9"/>
+  <dimension ref="C4:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -441,9 +1180,149 @@
       </c>
       <c r="E9" t="s">
         <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45589</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45595</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" ref="F10:F17" si="0">DATEDIF(D10,E10,"d") &amp; " Days"</f>
+        <v>6 Days</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45598</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3 Days</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45605</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4 Days</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45609</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45623</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>14 Days</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45627</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45643</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>16 Days</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45645</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45660</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>15 Days</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45677</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45694</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>17 Days</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45703</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45714</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>11 Days</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45716</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45733</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f>DATEDIF(D18,E18,"d") &amp; " Days"</f>
+        <v>17 Days</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>